--- a/fed-events/Fed_Events-03.06.23.xlsx
+++ b/fed-events/Fed_Events-03.06.23.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorcas/Development/python_scraper_parser_projects/fed-events/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DB70C7-B581-EE41-85F1-759A9CB8C447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4D051A-9ADD-5A43-87D6-D8229B5E8E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="28760" windowHeight="16100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FedScoop" sheetId="1" r:id="rId1"/>
     <sheet name="Gov Exec" sheetId="2" r:id="rId2"/>
     <sheet name="Nextgov" sheetId="3" r:id="rId3"/>
     <sheet name="Meritalk" sheetId="4" r:id="rId4"/>
+    <sheet name="ProServCouncil" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="234">
   <si>
     <t>Event Name</t>
   </si>
@@ -151,9 +152,6 @@
     <t>https://www.govexec.com/feature/explore-in-focus-DC/?oref=ge-events-lander-feature</t>
   </si>
   <si>
-    <t>Modern and Flexible Cybersecurity: A Dispatch from Rocky Mountain Cyberspace Symposium</t>
-  </si>
-  <si>
     <t>Broadband for All: How Far is NYS From Full Connectivity &amp; What Will It Take to Get There?</t>
   </si>
   <si>
@@ -253,9 +251,6 @@
     <t>2023 We Are The Future Summit</t>
   </si>
   <si>
-    <t>Cyber Summit 2023</t>
-  </si>
-  <si>
     <t>Nonprofit Trailblazers Awards 2023</t>
   </si>
   <si>
@@ -265,9 +260,6 @@
     <t>2023 Nonprofit OpCon</t>
   </si>
   <si>
-    <t>Monday, March 6, 1:00 – 2:00 pm, ET</t>
-  </si>
-  <si>
     <t>Tuesday, March 7, 9:00 am – 12:00 pm, ET</t>
   </si>
   <si>
@@ -367,9 +359,6 @@
     <t>Tuesday, May 9, 9:00 am ET</t>
   </si>
   <si>
-    <t>Monday, May 15, 12:00 pm – Thursday, May 18, 4:00 pm ET</t>
-  </si>
-  <si>
     <t>Wednesday, May 24, 6:30 – 8:30 pm, ET</t>
   </si>
   <si>
@@ -379,9 +368,6 @@
     <t>Thursday, June 15, 9:00 am – 5:00 pm, ET</t>
   </si>
   <si>
-    <t>March 6</t>
-  </si>
-  <si>
     <t>Museum of Jewish Heritage</t>
   </si>
   <si>
@@ -454,9 +440,6 @@
     <t>Austin, TX</t>
   </si>
   <si>
-    <t>May 15 – May 18</t>
-  </si>
-  <si>
     <t>The Mezzanine</t>
   </si>
   <si>
@@ -466,9 +449,6 @@
     <t>Hebrew Union College</t>
   </si>
   <si>
-    <t>https://events.govexec.com/flexible-cybersecurity/</t>
-  </si>
-  <si>
     <t>https://www.cityandstateny.com/feature/2023-Broadband-for-All/?oref=ge-events-upcoming</t>
   </si>
   <si>
@@ -560,9 +540,6 @@
   </si>
   <si>
     <t>https://events.route-fifty.com/road-to-future-cities-part-2/</t>
-  </si>
-  <si>
-    <t>https://events.govexec.com/cyber-summit-2023/</t>
   </si>
   <si>
     <t>https://www.nynmedia.com/feature/Nonprofit-Trailblazers-Awards-2023/</t>
@@ -614,6 +591,144 @@
   </si>
   <si>
     <t>https://www.meritalk.com/event/axonius-federal-forum-adapt-2023/</t>
+  </si>
+  <si>
+    <t>2023 Strategic Planning Forum</t>
+  </si>
+  <si>
+    <t>Council of International Development Companies Meeting</t>
+  </si>
+  <si>
+    <t>Contracting Working Group Meeting</t>
+  </si>
+  <si>
+    <t>Getting the Most of Your PSC Membership</t>
+  </si>
+  <si>
+    <t>Government Affairs Committee Meeting</t>
+  </si>
+  <si>
+    <t>2023 Annual Conference | In Person at The Greenbrier</t>
+  </si>
+  <si>
+    <t>2023 PSC Annual Conference | Virtual Registration Option</t>
+  </si>
+  <si>
+    <t>CIDC on the Hill</t>
+  </si>
+  <si>
+    <t>Department of Energy Office of Environmental Management RID</t>
+  </si>
+  <si>
+    <t>PSC Service Contract Act Virtual Training</t>
+  </si>
+  <si>
+    <t>Mar 14, 2023</t>
+  </si>
+  <si>
+    <t>Mar 16, 2023</t>
+  </si>
+  <si>
+    <t>Mar 17, 2023</t>
+  </si>
+  <si>
+    <t>Mar 22, 2023</t>
+  </si>
+  <si>
+    <t>Apr 07, 2023</t>
+  </si>
+  <si>
+    <t>Apr 16, 2023</t>
+  </si>
+  <si>
+    <t>Apr 17, 2023</t>
+  </si>
+  <si>
+    <t>Apr 20, 2023</t>
+  </si>
+  <si>
+    <t>Apr 21, 2023</t>
+  </si>
+  <si>
+    <t>Apr 25, 2023</t>
+  </si>
+  <si>
+    <t>May 04, 2023</t>
+  </si>
+  <si>
+    <t>May 05, 2023</t>
+  </si>
+  <si>
+    <t>May 16, 2023</t>
+  </si>
+  <si>
+    <t>May 17, 2023</t>
+  </si>
+  <si>
+    <t>May 18, 2023</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>Hybrid Meeting</t>
+  </si>
+  <si>
+    <t>The Greenbrier</t>
+  </si>
+  <si>
+    <t>Virtual Option</t>
+  </si>
+  <si>
+    <t>Gold Room</t>
+  </si>
+  <si>
+    <t>Virtual Training</t>
+  </si>
+  <si>
+    <t>https://pscouncil.org/Event.aspx?EventKey=2023VSPF</t>
+  </si>
+  <si>
+    <t>https://pscouncil.org/Event.aspx?EventKey=2303CIDC</t>
+  </si>
+  <si>
+    <t>https://pscouncil.org/Event.aspx?EventKey=2303CWG</t>
+  </si>
+  <si>
+    <t>https://pscouncil.org/Event.aspx?EventKey=2303MEMBER</t>
+  </si>
+  <si>
+    <t>https://pscouncil.org/Event.aspx?EventKey=2304GACAP</t>
+  </si>
+  <si>
+    <t>https://pscouncil.org/Event.aspx?EventKey=23AC</t>
+  </si>
+  <si>
+    <t>https://pscouncil.org/Event.aspx?EventKey=23ACWEB</t>
+  </si>
+  <si>
+    <t>https://pscouncil.org/Event.aspx?EventKey=2304CIDC</t>
+  </si>
+  <si>
+    <t>https://pscouncil.org/Event.aspx?EventKey=2304CWG</t>
+  </si>
+  <si>
+    <t>https://pscouncil.org/Event.aspx?EventKey=2023HILL</t>
+  </si>
+  <si>
+    <t>https://pscouncil.org/Event.aspx?EventKey=2305DOERID</t>
+  </si>
+  <si>
+    <t>https://pscouncil.org/Event.aspx?EventKey=2305GACAP</t>
+  </si>
+  <si>
+    <t>https://pscouncil.org/Event.aspx?EventKey=23MAYSCA</t>
+  </si>
+  <si>
+    <t>https://pscouncil.org/Event.aspx?EventKey=2305CWG</t>
+  </si>
+  <si>
+    <t>https://pscouncil.org/Event.aspx?EventKey=2305CIDC</t>
   </si>
 </sst>
 </file>
@@ -668,16 +783,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1019,17 +1128,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1189,17 +1290,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="94.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="116.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1234,13 +1329,13 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1248,13 +1343,13 @@
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1262,13 +1357,13 @@
         <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1276,13 +1371,13 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1290,13 +1385,13 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1304,13 +1399,13 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1318,13 +1413,13 @@
         <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1332,13 +1427,13 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1346,13 +1441,13 @@
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1360,13 +1455,13 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1374,13 +1469,13 @@
         <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1388,13 +1483,13 @@
         <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1402,13 +1497,13 @@
         <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1416,13 +1511,13 @@
         <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1430,13 +1525,13 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1444,13 +1539,13 @@
         <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1458,13 +1553,13 @@
         <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1472,13 +1567,13 @@
         <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1486,13 +1581,13 @@
         <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1500,13 +1595,13 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1514,13 +1609,13 @@
         <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1528,13 +1623,13 @@
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1542,13 +1637,13 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1556,13 +1651,13 @@
         <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1570,13 +1665,13 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1584,13 +1679,13 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1598,13 +1693,13 @@
         <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1612,13 +1707,13 @@
         <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1626,13 +1721,13 @@
         <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1640,13 +1735,13 @@
         <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1654,13 +1749,13 @@
         <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1668,13 +1763,13 @@
         <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1682,41 +1777,41 @@
         <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1724,13 +1819,13 @@
         <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1738,41 +1833,13 @@
         <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1815,8 +1882,6 @@
     <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
     <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
     <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1824,17 +1889,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1852,51 +1911,36 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1906,72 +1950,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="55.1640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>183</v>
+      <c r="C1" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" t="s">
         <v>184</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D4" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1982,4 +2018,266 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="49.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/fed-events/Fed_Events-03.06.23.xlsx
+++ b/fed-events/Fed_Events-03.06.23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorcas/Development/python_scraper_parser_projects/fed-events/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4D051A-9ADD-5A43-87D6-D8229B5E8E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9109ED11-364F-B146-A8D3-7E9AAD352A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="28760" windowHeight="16100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31460" yWindow="500" windowWidth="35340" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FedScoop" sheetId="1" r:id="rId1"/>
@@ -783,10 +783,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1128,9 +1134,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1292,12 +1304,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A12" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="70.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="116.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1310,8 +1330,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B2" t="s">
@@ -1324,8 +1344,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B3" t="s">
@@ -1338,8 +1358,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
@@ -1352,8 +1372,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B5" t="s">
@@ -1366,8 +1386,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B6" t="s">
@@ -1380,8 +1400,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B7" t="s">
@@ -1394,8 +1414,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B8" t="s">
@@ -1408,8 +1428,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B9" t="s">
@@ -1422,8 +1442,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B10" t="s">
@@ -1436,8 +1456,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B11" t="s">
@@ -1450,8 +1470,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B12" t="s">
@@ -1464,8 +1484,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B13" t="s">
@@ -1478,8 +1498,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B14" t="s">
@@ -1492,8 +1512,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B15" t="s">
@@ -1506,8 +1526,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B16" t="s">
@@ -1520,8 +1540,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B17" t="s">
@@ -1534,8 +1554,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B18" t="s">
@@ -1548,8 +1568,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B19" t="s">
@@ -1562,8 +1582,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B20" t="s">
@@ -1576,8 +1596,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B21" t="s">
@@ -1590,8 +1610,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B22" t="s">
@@ -1604,8 +1624,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B23" t="s">
@@ -1618,8 +1638,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B24" t="s">
@@ -1632,8 +1652,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B25" t="s">
@@ -1646,8 +1666,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B26" t="s">
@@ -1660,8 +1680,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B27" t="s">
@@ -1674,8 +1694,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B28" t="s">
@@ -1688,8 +1708,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B29" t="s">
@@ -1702,8 +1722,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B30" t="s">
@@ -1716,8 +1736,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B31" t="s">
@@ -1730,8 +1750,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B32" t="s">
@@ -1744,8 +1764,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B33" t="s">
@@ -1758,8 +1778,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B34" t="s">
@@ -1772,8 +1792,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B35" t="s">
@@ -1786,8 +1806,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B36" t="s">
@@ -1800,8 +1820,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B37" t="s">
@@ -1814,8 +1834,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B38" t="s">
@@ -1828,8 +1848,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B39" t="s">
@@ -1891,9 +1911,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1950,60 +1978,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="126" style="4" customWidth="1"/>
+    <col min="4" max="4" width="55.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>176</v>
       </c>
       <c r="B2" t="s">
         <v>179</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>177</v>
       </c>
       <c r="B3" t="s">
         <v>180</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>183</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>178</v>
       </c>
       <c r="B4" t="s">
         <v>181</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2024,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
